--- a/data/ContractRolls_1-4sd.xlsx
+++ b/data/ContractRolls_1-4sd.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hoteicapital-my.sharepoint.com/personal/jiashang_hoteicapital_com/Documents/Desktop/Notebooks/Streamlit_v1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_23F921ED46B3CC1A5640A88F5277E0887452B2F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4676FDDB-8322-43D9-94E7-24FD6E125CB3}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="11_23F921ED46B3CC1A5640A88F5277E0887452B2F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D6DEDCA-F30B-4E15-9BDE-8490B9B51738}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="3405" windowWidth="28800" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="all_scenarios" sheetId="2" r:id="rId1"/>
-    <sheet name="top_diffs" sheetId="1" r:id="rId2"/>
+    <sheet name="scenarios_Boxes" sheetId="3" r:id="rId1"/>
+    <sheet name="all_scenarios" sheetId="2" r:id="rId2"/>
+    <sheet name="top_diffs" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_scenarios!$C$1:$Q$657</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">all_scenarios!$C$1:$Q$657</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="86">
   <si>
     <t>scenario</t>
   </si>
@@ -293,6 +294,9 @@
   <si>
     <t>std &gt; 25c</t>
   </si>
+  <si>
+    <t>label</t>
+  </si>
 </sst>
 </file>
 
@@ -335,7 +339,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -358,11 +362,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -371,6 +386,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -676,6 +694,1758 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B02524-434E-4D59-A285-A90857057F1E}">
+  <dimension ref="A1:U26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>39</v>
+      </c>
+      <c r="H2">
+        <v>-4.46</v>
+      </c>
+      <c r="I2">
+        <v>11.16</v>
+      </c>
+      <c r="J2">
+        <v>6.8</v>
+      </c>
+      <c r="K2">
+        <v>1.53</v>
+      </c>
+      <c r="L2">
+        <v>1.64</v>
+      </c>
+      <c r="M2">
+        <v>0.61</v>
+      </c>
+      <c r="N2">
+        <v>-0.66</v>
+      </c>
+      <c r="O2">
+        <v>0.74</v>
+      </c>
+      <c r="P2">
+        <v>0.74</v>
+      </c>
+      <c r="Q2">
+        <v>5.14</v>
+      </c>
+      <c r="R2">
+        <v>0.3</v>
+      </c>
+      <c r="S2">
+        <v>0.17</v>
+      </c>
+      <c r="T2">
+        <v>1.87</v>
+      </c>
+      <c r="U2" t="str">
+        <f>_xlfn.CONCAT("'",A2,"': ['",B2,"', ",D2,", 'Box'],")</f>
+        <v>'S10ppm-S0.5': ['IP', 12, 'Box'],</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>104</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>-1.89</v>
+      </c>
+      <c r="I3">
+        <v>2.72</v>
+      </c>
+      <c r="J3">
+        <v>2.93</v>
+      </c>
+      <c r="K3">
+        <v>1.55</v>
+      </c>
+      <c r="L3">
+        <v>0.93</v>
+      </c>
+      <c r="M3">
+        <v>1.08</v>
+      </c>
+      <c r="N3">
+        <v>-0.75</v>
+      </c>
+      <c r="O3">
+        <v>0.13</v>
+      </c>
+      <c r="P3">
+        <v>0.25</v>
+      </c>
+      <c r="Q3">
+        <v>1.48</v>
+      </c>
+      <c r="R3">
+        <v>0.34</v>
+      </c>
+      <c r="S3">
+        <v>2.31</v>
+      </c>
+      <c r="T3">
+        <v>1.38</v>
+      </c>
+      <c r="U3" t="str">
+        <f t="shared" ref="U3:U26" si="0">_xlfn.CONCAT("'",A3,"': ['",B3,"', ",D3,", 'Box'],")</f>
+        <v>'SKO-NWE Jet': ['Dist', 1, 'Box'],</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>-0.22</v>
+      </c>
+      <c r="I4">
+        <v>2.37</v>
+      </c>
+      <c r="J4">
+        <v>1.32</v>
+      </c>
+      <c r="K4">
+        <v>6.12</v>
+      </c>
+      <c r="L4">
+        <v>1.79</v>
+      </c>
+      <c r="M4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N4">
+        <v>-1.5</v>
+      </c>
+      <c r="O4">
+        <v>0.63</v>
+      </c>
+      <c r="P4">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="Q4">
+        <v>-0.04</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="T4">
+        <v>0.96</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" si="0"/>
+        <v>'FEI Propane-MOPJ Naph': ['Lights', 12, 'Box'],</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>-0.26</v>
+      </c>
+      <c r="I5">
+        <v>0.48</v>
+      </c>
+      <c r="J5">
+        <v>0.51</v>
+      </c>
+      <c r="K5">
+        <v>1.92</v>
+      </c>
+      <c r="L5">
+        <v>0.94</v>
+      </c>
+      <c r="M5">
+        <v>1.06</v>
+      </c>
+      <c r="N5">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="O5">
+        <v>0.21</v>
+      </c>
+      <c r="P5">
+        <v>0.62</v>
+      </c>
+      <c r="Q5">
+        <v>-0.81</v>
+      </c>
+      <c r="R5">
+        <v>1.01</v>
+      </c>
+      <c r="S5">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="T5">
+        <v>0.82</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" si="0"/>
+        <v>'380 EW': ['FO', 1, 'Box'],</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>-0.42</v>
+      </c>
+      <c r="I6">
+        <v>1.38</v>
+      </c>
+      <c r="J6">
+        <v>1.02</v>
+      </c>
+      <c r="K6">
+        <v>2.41</v>
+      </c>
+      <c r="L6">
+        <v>1.36</v>
+      </c>
+      <c r="M6">
+        <v>0.74</v>
+      </c>
+      <c r="N6">
+        <v>-0.39</v>
+      </c>
+      <c r="O6">
+        <v>0.13</v>
+      </c>
+      <c r="P6">
+        <v>0.39</v>
+      </c>
+      <c r="Q6">
+        <v>-0.33</v>
+      </c>
+      <c r="R6">
+        <v>1.91</v>
+      </c>
+      <c r="S6">
+        <v>0.75</v>
+      </c>
+      <c r="T6">
+        <v>0.78</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="0"/>
+        <v>'SKO-Brt': ['Dist', 1, 'Box'],</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>-0.86</v>
+      </c>
+      <c r="I7">
+        <v>0.63</v>
+      </c>
+      <c r="J7">
+        <v>1.01</v>
+      </c>
+      <c r="K7">
+        <v>1.18</v>
+      </c>
+      <c r="L7">
+        <v>0.62</v>
+      </c>
+      <c r="M7">
+        <v>1.61</v>
+      </c>
+      <c r="N7">
+        <v>-0.3</v>
+      </c>
+      <c r="O7">
+        <v>0.13</v>
+      </c>
+      <c r="P7">
+        <v>0.27</v>
+      </c>
+      <c r="Q7">
+        <v>-0.34</v>
+      </c>
+      <c r="R7">
+        <v>-0.34</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>0.77</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="0"/>
+        <v>'GO EW': ['Dist', 6, 'Box'],</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>-0.25</v>
+      </c>
+      <c r="I8">
+        <v>1.59</v>
+      </c>
+      <c r="J8">
+        <v>0.77</v>
+      </c>
+      <c r="K8">
+        <v>3.12</v>
+      </c>
+      <c r="L8">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="M8">
+        <v>0.48</v>
+      </c>
+      <c r="N8">
+        <v>0.38</v>
+      </c>
+      <c r="O8">
+        <v>0.47</v>
+      </c>
+      <c r="P8">
+        <v>1.88</v>
+      </c>
+      <c r="Q8">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="R8">
+        <v>3.21</v>
+      </c>
+      <c r="S8">
+        <v>-0.41</v>
+      </c>
+      <c r="T8">
+        <v>0.74</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="0"/>
+        <v>'92-380': ['IP', 6, 'Box'],</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>-0.68</v>
+      </c>
+      <c r="I9">
+        <v>6.4</v>
+      </c>
+      <c r="J9">
+        <v>1.96</v>
+      </c>
+      <c r="K9">
+        <v>2.88</v>
+      </c>
+      <c r="L9">
+        <v>3.27</v>
+      </c>
+      <c r="M9">
+        <v>0.31</v>
+      </c>
+      <c r="N9">
+        <v>3.94</v>
+      </c>
+      <c r="O9">
+        <v>0.62</v>
+      </c>
+      <c r="P9">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="Q9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R9">
+        <v>2.77</v>
+      </c>
+      <c r="S9">
+        <v>-1.23</v>
+      </c>
+      <c r="T9">
+        <v>0.7</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="0"/>
+        <v>'RB-HO': ['IP', 12, 'Box'],</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>45</v>
+      </c>
+      <c r="G10">
+        <v>34</v>
+      </c>
+      <c r="H10">
+        <v>-0.79</v>
+      </c>
+      <c r="I10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J10">
+        <v>0.82</v>
+      </c>
+      <c r="K10">
+        <v>1.05</v>
+      </c>
+      <c r="L10">
+        <v>0.68</v>
+      </c>
+      <c r="M10">
+        <v>1.47</v>
+      </c>
+      <c r="N10">
+        <v>-0.24</v>
+      </c>
+      <c r="O10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q10">
+        <v>-0.52</v>
+      </c>
+      <c r="R10">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="S10">
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <v>0.64</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="0"/>
+        <v>'S180-S380': ['FO', 12, 'Box'],</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>-0.06</v>
+      </c>
+      <c r="I11">
+        <v>1.93</v>
+      </c>
+      <c r="J11">
+        <v>0.84</v>
+      </c>
+      <c r="K11">
+        <v>13.77</v>
+      </c>
+      <c r="L11">
+        <v>2.29</v>
+      </c>
+      <c r="M11">
+        <v>0.44</v>
+      </c>
+      <c r="N11">
+        <v>1.41</v>
+      </c>
+      <c r="O11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P11">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="Q11">
+        <v>-0.5</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>-0.63</v>
+      </c>
+      <c r="T11">
+        <v>0.63</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="0"/>
+        <v>'S92-Brt': ['Lights', 6, 'Box'],</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>-0.16</v>
+      </c>
+      <c r="I12">
+        <v>1.42</v>
+      </c>
+      <c r="J12">
+        <v>0.66</v>
+      </c>
+      <c r="K12">
+        <v>4.17</v>
+      </c>
+      <c r="L12">
+        <v>2.14</v>
+      </c>
+      <c r="M12">
+        <v>0.47</v>
+      </c>
+      <c r="N12">
+        <v>-1.98</v>
+      </c>
+      <c r="O12">
+        <v>0.21</v>
+      </c>
+      <c r="P12">
+        <v>0.82</v>
+      </c>
+      <c r="Q12">
+        <v>-0.67</v>
+      </c>
+      <c r="R12">
+        <v>3</v>
+      </c>
+      <c r="S12">
+        <v>-0.49</v>
+      </c>
+      <c r="T12">
+        <v>0.62</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="0"/>
+        <v>'NWE Propane-Naph': ['Lights', 1, 'Box'],</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>-0.13</v>
+      </c>
+      <c r="I13">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J13">
+        <v>0.51</v>
+      </c>
+      <c r="K13">
+        <v>3.98</v>
+      </c>
+      <c r="L13">
+        <v>2.27</v>
+      </c>
+      <c r="M13">
+        <v>0.44</v>
+      </c>
+      <c r="N13">
+        <v>1.41</v>
+      </c>
+      <c r="O13">
+        <v>0.24</v>
+      </c>
+      <c r="P13">
+        <v>0.94</v>
+      </c>
+      <c r="Q13">
+        <v>-0.81</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13">
+        <v>-0.61</v>
+      </c>
+      <c r="T13">
+        <v>0.53</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="0"/>
+        <v>'S380-Brt': ['FO', 1, 'Box'],</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>-0.13</v>
+      </c>
+      <c r="I14">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J14">
+        <v>0.5</v>
+      </c>
+      <c r="K14">
+        <v>3.8</v>
+      </c>
+      <c r="L14">
+        <v>2.27</v>
+      </c>
+      <c r="M14">
+        <v>0.44</v>
+      </c>
+      <c r="N14">
+        <v>1.43</v>
+      </c>
+      <c r="O14">
+        <v>0.23</v>
+      </c>
+      <c r="P14">
+        <v>0.91</v>
+      </c>
+      <c r="Q14">
+        <v>-0.82</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="S14">
+        <v>-0.61</v>
+      </c>
+      <c r="T14">
+        <v>0.52</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="0"/>
+        <v>'S180-Brt': ['FO', 1, 'Box'],</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>81</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>-1.33</v>
+      </c>
+      <c r="I15">
+        <v>1.07</v>
+      </c>
+      <c r="J15">
+        <v>1.2</v>
+      </c>
+      <c r="K15">
+        <v>0.9</v>
+      </c>
+      <c r="L15">
+        <v>0.89</v>
+      </c>
+      <c r="M15">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="N15">
+        <v>-1.19</v>
+      </c>
+      <c r="O15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q15">
+        <v>-0.16</v>
+      </c>
+      <c r="R15">
+        <v>-0.85</v>
+      </c>
+      <c r="S15">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="T15">
+        <v>0.51</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="0"/>
+        <v>'HOGO': ['Dist', 1, 'Box'],</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>-0.06</v>
+      </c>
+      <c r="I16">
+        <v>1.41</v>
+      </c>
+      <c r="J16">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K16">
+        <v>9.64</v>
+      </c>
+      <c r="L16">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="M16">
+        <v>0.41</v>
+      </c>
+      <c r="N16">
+        <v>0.84</v>
+      </c>
+      <c r="O16">
+        <v>0.33</v>
+      </c>
+      <c r="P16">
+        <v>1.33</v>
+      </c>
+      <c r="Q16">
+        <v>-0.74</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16">
+        <v>-0.76</v>
+      </c>
+      <c r="T16">
+        <v>0.5</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="0"/>
+        <v>'S0.5-Brt': ['FO', 3, 'Box'],</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>-2.4</v>
+      </c>
+      <c r="I17">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>0.83</v>
+      </c>
+      <c r="L17">
+        <v>1.03</v>
+      </c>
+      <c r="M17">
+        <v>0.97</v>
+      </c>
+      <c r="N17">
+        <v>-3.38</v>
+      </c>
+      <c r="O17">
+        <v>0.18</v>
+      </c>
+      <c r="P17">
+        <v>0.37</v>
+      </c>
+      <c r="Q17">
+        <v>0.6</v>
+      </c>
+      <c r="R17">
+        <v>-0.98</v>
+      </c>
+      <c r="S17">
+        <v>1.83</v>
+      </c>
+      <c r="T17">
+        <v>0.48</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="0"/>
+        <v>'Rbob-Ebob': ['Lights', 1, 'Box'],</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>62</v>
+      </c>
+      <c r="H18">
+        <v>-1.69</v>
+      </c>
+      <c r="I18">
+        <v>2.39</v>
+      </c>
+      <c r="J18">
+        <v>1.96</v>
+      </c>
+      <c r="K18">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L18">
+        <v>1.22</v>
+      </c>
+      <c r="M18">
+        <v>0.82</v>
+      </c>
+      <c r="N18">
+        <v>0.6</v>
+      </c>
+      <c r="O18">
+        <v>0.97</v>
+      </c>
+      <c r="P18">
+        <v>1.93</v>
+      </c>
+      <c r="Q18">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R18">
+        <v>-0.38</v>
+      </c>
+      <c r="S18">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="T18">
+        <v>0.44</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="0"/>
+        <v>'92-S0.5': ['IP', 12, 'Box'],</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>-0.19</v>
+      </c>
+      <c r="I19">
+        <v>1.95</v>
+      </c>
+      <c r="J19">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K19">
+        <v>3.05</v>
+      </c>
+      <c r="L19">
+        <v>3.37</v>
+      </c>
+      <c r="M19">
+        <v>0.3</v>
+      </c>
+      <c r="N19">
+        <v>6.22</v>
+      </c>
+      <c r="O19">
+        <v>0.42</v>
+      </c>
+      <c r="P19">
+        <v>1.7</v>
+      </c>
+      <c r="Q19">
+        <v>-0.74</v>
+      </c>
+      <c r="R19">
+        <v>3.08</v>
+      </c>
+      <c r="S19">
+        <v>-1.27</v>
+      </c>
+      <c r="T19">
+        <v>0.36</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="0"/>
+        <v>'Ebob-ICEGO': ['IP', 3, 'Box'],</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>13</v>
+      </c>
+      <c r="H20">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="I20">
+        <v>0.53</v>
+      </c>
+      <c r="J20">
+        <v>0.54</v>
+      </c>
+      <c r="K20">
+        <v>0.95</v>
+      </c>
+      <c r="L20">
+        <v>0.99</v>
+      </c>
+      <c r="M20">
+        <v>1.01</v>
+      </c>
+      <c r="N20">
+        <v>0.4</v>
+      </c>
+      <c r="O20">
+        <v>0.22</v>
+      </c>
+      <c r="P20">
+        <v>0.66</v>
+      </c>
+      <c r="Q20">
+        <v>-0.78</v>
+      </c>
+      <c r="R20">
+        <v>-0.76</v>
+      </c>
+      <c r="S20">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="T20">
+        <v>0.16</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="0"/>
+        <v>'EU0.5-Brt': ['FO', 1, 'Box'],</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>33</v>
+      </c>
+      <c r="G21">
+        <v>51</v>
+      </c>
+      <c r="H21">
+        <v>-3.88</v>
+      </c>
+      <c r="I21">
+        <v>4.88</v>
+      </c>
+      <c r="J21">
+        <v>2.92</v>
+      </c>
+      <c r="K21">
+        <v>0.75</v>
+      </c>
+      <c r="L21">
+        <v>1.67</v>
+      </c>
+      <c r="M21">
+        <v>0.6</v>
+      </c>
+      <c r="N21">
+        <v>1.41</v>
+      </c>
+      <c r="O21">
+        <v>0.52</v>
+      </c>
+      <c r="P21">
+        <v>0.52</v>
+      </c>
+      <c r="Q21">
+        <v>1.47</v>
+      </c>
+      <c r="R21">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="S21">
+        <v>0.12</v>
+      </c>
+      <c r="T21">
+        <v>0.16</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="0"/>
+        <v>'92-S10ppm': ['IP', 12, 'Box'],</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>14</v>
+      </c>
+      <c r="G22">
+        <v>13</v>
+      </c>
+      <c r="H22">
+        <v>-0.87</v>
+      </c>
+      <c r="I22">
+        <v>1.26</v>
+      </c>
+      <c r="J22">
+        <v>0.92</v>
+      </c>
+      <c r="K22">
+        <v>1.05</v>
+      </c>
+      <c r="L22">
+        <v>1.37</v>
+      </c>
+      <c r="M22">
+        <v>0.73</v>
+      </c>
+      <c r="N22">
+        <v>-0.87</v>
+      </c>
+      <c r="O22">
+        <v>0.1</v>
+      </c>
+      <c r="P22">
+        <v>0.3</v>
+      </c>
+      <c r="Q22">
+        <v>-0.42</v>
+      </c>
+      <c r="R22">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="S22">
+        <v>0.72</v>
+      </c>
+      <c r="T22">
+        <v>-0.09</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="0"/>
+        <v>'S0.5-S380': ['FO', 1, 'Box'],</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>17</v>
+      </c>
+      <c r="G23">
+        <v>33</v>
+      </c>
+      <c r="H23">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="I23">
+        <v>1.36</v>
+      </c>
+      <c r="J23">
+        <v>0.78</v>
+      </c>
+      <c r="K23">
+        <v>1.35</v>
+      </c>
+      <c r="L23">
+        <v>1.75</v>
+      </c>
+      <c r="M23">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N23">
+        <v>0.54</v>
+      </c>
+      <c r="O23">
+        <v>0.15</v>
+      </c>
+      <c r="P23">
+        <v>0.45</v>
+      </c>
+      <c r="Q23">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="R23">
+        <v>-0.03</v>
+      </c>
+      <c r="S23">
+        <v>-0.01</v>
+      </c>
+      <c r="T23">
+        <v>-0.2</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="0"/>
+        <v>'MOPJ Naph-Brt': ['Lights', 3, 'Box'],</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>13</v>
+      </c>
+      <c r="H24">
+        <v>-0.32</v>
+      </c>
+      <c r="I24">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J24">
+        <v>0.51</v>
+      </c>
+      <c r="K24">
+        <v>1.62</v>
+      </c>
+      <c r="L24">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M24">
+        <v>0.44</v>
+      </c>
+      <c r="N24">
+        <v>2.12</v>
+      </c>
+      <c r="O24">
+        <v>0.18</v>
+      </c>
+      <c r="P24">
+        <v>0.71</v>
+      </c>
+      <c r="Q24">
+        <v>-0.81</v>
+      </c>
+      <c r="R24">
+        <v>0.46</v>
+      </c>
+      <c r="S24">
+        <v>-0.62</v>
+      </c>
+      <c r="T24">
+        <v>-0.32</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="0"/>
+        <v>'3.5Rdm-Brt': ['FO', 3, 'Box'],</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>17</v>
+      </c>
+      <c r="G25">
+        <v>21</v>
+      </c>
+      <c r="H25">
+        <v>-0.44</v>
+      </c>
+      <c r="I25">
+        <v>1.23</v>
+      </c>
+      <c r="J25">
+        <v>0.6</v>
+      </c>
+      <c r="K25">
+        <v>1.38</v>
+      </c>
+      <c r="L25">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="M25">
+        <v>0.49</v>
+      </c>
+      <c r="N25">
+        <v>-0.51</v>
+      </c>
+      <c r="O25">
+        <v>0.13</v>
+      </c>
+      <c r="P25">
+        <v>0.38</v>
+      </c>
+      <c r="Q25">
+        <v>-0.72</v>
+      </c>
+      <c r="R25">
+        <v>0.03</v>
+      </c>
+      <c r="S25">
+        <v>-0.39</v>
+      </c>
+      <c r="T25">
+        <v>-0.36</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="0"/>
+        <v>'Regrade': ['Dist', 3, 'Box'],</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>27</v>
+      </c>
+      <c r="H26">
+        <v>-0.68</v>
+      </c>
+      <c r="I26">
+        <v>1.68</v>
+      </c>
+      <c r="J26">
+        <v>0.51</v>
+      </c>
+      <c r="K26">
+        <v>0.75</v>
+      </c>
+      <c r="L26">
+        <v>3.29</v>
+      </c>
+      <c r="M26">
+        <v>0.3</v>
+      </c>
+      <c r="N26">
+        <v>-0.03</v>
+      </c>
+      <c r="O26">
+        <v>0.1</v>
+      </c>
+      <c r="P26">
+        <v>0.3</v>
+      </c>
+      <c r="Q26">
+        <v>-0.81</v>
+      </c>
+      <c r="R26">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="S26">
+        <v>-1.24</v>
+      </c>
+      <c r="T26">
+        <v>-1.06</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="0"/>
+        <v>'Jet diff': ['Dist', 3, 'Box'],</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FAE881-0A5F-4FBA-8635-DB633F08DFD6}">
   <dimension ref="A1:Q657"/>
   <sheetViews>
@@ -36187,11 +37957,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>

--- a/data/ContractRolls_1-4sd.xlsx
+++ b/data/ContractRolls_1-4sd.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="40" documentId="11_23F921ED46B3CC1A5640A88F5277E0887452B2F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D6DEDCA-F30B-4E15-9BDE-8490B9B51738}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios_Boxes" sheetId="3" r:id="rId1"/>
@@ -388,7 +388,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -698,7 +698,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
